--- a/QueryCau7.xlsx
+++ b/QueryCau7.xlsx
@@ -5,26 +5,26 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025\School\OLAP\IS217_Q13_23521367_23520982\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025\School\IS217_Q13_23521367_23520982\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A07C8AC9-A23C-4C8B-8B1E-B7252AFA8C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55AB65CE-C660-47DE-9E68-5BD48FF5F90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{B3B139EB-B0AA-499C-B477-01AAAC7BCE58}"/>
+    <workbookView xWindow="5115" yWindow="1935" windowWidth="21600" windowHeight="11295" xr2:uid="{1CC10F75-448D-4929-9308-513108C22B57}"/>
   </bookViews>
   <sheets>
-    <sheet name="tmp59C2" sheetId="1" r:id="rId1"/>
+    <sheet name="tmp52DD" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId2"/>
+    <pivotCache cacheId="19" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{6B3E367D-22BF-48F7-BE1F-47ABB2D8030A}" odcFile="C:\Users\SINISTER\AppData\Local\Temp\tmp59C2.odc" keepAlive="1" name="SINISTER ssas_project" type="5" refreshedVersion="8" background="1">
+  <connection id="1" xr16:uid="{93973254-7B3F-4E2C-AFF4-D0212B42BE26}" odcFile="C:\Users\SINISTER\AppData\Local\Temp\tmp52DD.odc" keepAlive="1" name="SINISTER ssas_project" type="5" refreshedVersion="8" background="1">
     <dbPr connection="Provider=MSOLAP.8;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=ssas_project;Data Source=SINISTER;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error;Update Isolation Level=2" command="US Accidents DW" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
   </connection>
@@ -62,6 +62,150 @@
     <t>AL</t>
   </si>
   <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>WV</t>
+  </si>
+  <si>
+    <t>WY</t>
+  </si>
+  <si>
     <t>Birmingham</t>
   </si>
   <si>
@@ -71,9 +215,6 @@
     <t>Montgomery</t>
   </si>
   <si>
-    <t>AR</t>
-  </si>
-  <si>
     <t>Benton</t>
   </si>
   <si>
@@ -83,9 +224,6 @@
     <t>North Little Rock</t>
   </si>
   <si>
-    <t>AZ</t>
-  </si>
-  <si>
     <t>Phoenix</t>
   </si>
   <si>
@@ -95,9 +233,6 @@
     <t>Tucson</t>
   </si>
   <si>
-    <t>CA</t>
-  </si>
-  <si>
     <t>Los Angeles</t>
   </si>
   <si>
@@ -107,36 +242,24 @@
     <t>San Diego</t>
   </si>
   <si>
-    <t>CO</t>
-  </si>
-  <si>
     <t>Colorado Springs</t>
   </si>
   <si>
     <t>Denver</t>
   </si>
   <si>
-    <t>CT</t>
-  </si>
-  <si>
     <t>Hartford</t>
   </si>
   <si>
     <t>Waterbury</t>
   </si>
   <si>
-    <t>DC</t>
-  </si>
-  <si>
     <t>Unknown</t>
   </si>
   <si>
     <t>Washington</t>
   </si>
   <si>
-    <t>DE</t>
-  </si>
-  <si>
     <t>New Castle</t>
   </si>
   <si>
@@ -146,9 +269,6 @@
     <t>Wilmington</t>
   </si>
   <si>
-    <t>FL</t>
-  </si>
-  <si>
     <t>Jacksonville</t>
   </si>
   <si>
@@ -158,27 +278,18 @@
     <t>Orlando</t>
   </si>
   <si>
-    <t>GA</t>
-  </si>
-  <si>
     <t>Atlanta</t>
   </si>
   <si>
     <t>Augusta</t>
   </si>
   <si>
-    <t>IA</t>
-  </si>
-  <si>
     <t>Cedar Rapids</t>
   </si>
   <si>
     <t>Des Moines</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>Boise</t>
   </si>
   <si>
@@ -188,15 +299,9 @@
     <t>Nampa</t>
   </si>
   <si>
-    <t>IL</t>
-  </si>
-  <si>
     <t>Chicago</t>
   </si>
   <si>
-    <t>IN</t>
-  </si>
-  <si>
     <t>Gary</t>
   </si>
   <si>
@@ -206,9 +311,6 @@
     <t>Indianapolis</t>
   </si>
   <si>
-    <t>KS</t>
-  </si>
-  <si>
     <t>Kansas City</t>
   </si>
   <si>
@@ -218,9 +320,6 @@
     <t>Overland Park</t>
   </si>
   <si>
-    <t>KY</t>
-  </si>
-  <si>
     <t>Covington</t>
   </si>
   <si>
@@ -230,9 +329,6 @@
     <t>Louisville</t>
   </si>
   <si>
-    <t>LA</t>
-  </si>
-  <si>
     <t>Baton Rouge</t>
   </si>
   <si>
@@ -242,33 +338,21 @@
     <t>Shreveport</t>
   </si>
   <si>
-    <t>MA</t>
-  </si>
-  <si>
     <t>Boston</t>
   </si>
   <si>
     <t>Dorchester</t>
   </si>
   <si>
-    <t>MD</t>
-  </si>
-  <si>
     <t>Frederick</t>
   </si>
   <si>
     <t>Silver Spring</t>
   </si>
   <si>
-    <t>ME</t>
-  </si>
-  <si>
     <t>Portland</t>
   </si>
   <si>
-    <t>MI</t>
-  </si>
-  <si>
     <t>Detroit</t>
   </si>
   <si>
@@ -278,36 +362,24 @@
     <t>Grand Rapids</t>
   </si>
   <si>
-    <t>MN</t>
-  </si>
-  <si>
     <t>Minneapolis</t>
   </si>
   <si>
     <t>Saint Paul</t>
   </si>
   <si>
-    <t>MO</t>
-  </si>
-  <si>
     <t>Saint Louis</t>
   </si>
   <si>
     <t>Springfield</t>
   </si>
   <si>
-    <t>MS</t>
-  </si>
-  <si>
     <t>Hattiesburg</t>
   </si>
   <si>
     <t>Jackson</t>
   </si>
   <si>
-    <t>MT</t>
-  </si>
-  <si>
     <t>Billings</t>
   </si>
   <si>
@@ -317,51 +389,33 @@
     <t>Livingston</t>
   </si>
   <si>
-    <t>NC</t>
-  </si>
-  <si>
     <t>Charlotte</t>
   </si>
   <si>
     <t>Raleigh</t>
   </si>
   <si>
-    <t>ND</t>
-  </si>
-  <si>
     <t>Fargo</t>
   </si>
   <si>
     <t>Mandan</t>
   </si>
   <si>
-    <t>NE</t>
-  </si>
-  <si>
     <t>Bellevue</t>
   </si>
   <si>
     <t>Omaha</t>
   </si>
   <si>
-    <t>NH</t>
-  </si>
-  <si>
     <t>Manchester</t>
   </si>
   <si>
-    <t>NJ</t>
-  </si>
-  <si>
     <t>Fort Lee</t>
   </si>
   <si>
     <t>Jersey City</t>
   </si>
   <si>
-    <t>NM</t>
-  </si>
-  <si>
     <t>Albuquerque</t>
   </si>
   <si>
@@ -371,27 +425,18 @@
     <t>Gallup</t>
   </si>
   <si>
-    <t>NV</t>
-  </si>
-  <si>
     <t>Reno</t>
   </si>
   <si>
     <t>Sparks</t>
   </si>
   <si>
-    <t>NY</t>
-  </si>
-  <si>
     <t>Bronx</t>
   </si>
   <si>
     <t>New York</t>
   </si>
   <si>
-    <t>OH</t>
-  </si>
-  <si>
     <t>Cincinnati</t>
   </si>
   <si>
@@ -401,27 +446,18 @@
     <t>Dayton</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
     <t>Oklahoma City</t>
   </si>
   <si>
     <t>Tulsa</t>
   </si>
   <si>
-    <t>OR</t>
-  </si>
-  <si>
     <t>Bend</t>
   </si>
   <si>
     <t>Pendleton</t>
   </si>
   <si>
-    <t>PA</t>
-  </si>
-  <si>
     <t>Lancaster</t>
   </si>
   <si>
@@ -431,18 +467,12 @@
     <t>Pittsburgh</t>
   </si>
   <si>
-    <t>RI</t>
-  </si>
-  <si>
     <t>Providence</t>
   </si>
   <si>
     <t>Warwick</t>
   </si>
   <si>
-    <t>SC</t>
-  </si>
-  <si>
     <t>Columbia</t>
   </si>
   <si>
@@ -452,12 +482,6 @@
     <t>Spartanburg</t>
   </si>
   <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>TN</t>
-  </si>
-  <si>
     <t>Chattanooga</t>
   </si>
   <si>
@@ -467,9 +491,6 @@
     <t>Nashville</t>
   </si>
   <si>
-    <t>TX</t>
-  </si>
-  <si>
     <t>Austin</t>
   </si>
   <si>
@@ -479,9 +500,6 @@
     <t>Houston</t>
   </si>
   <si>
-    <t>UT</t>
-  </si>
-  <si>
     <t>Ogden</t>
   </si>
   <si>
@@ -491,39 +509,24 @@
     <t>West Valley City</t>
   </si>
   <si>
-    <t>VA</t>
-  </si>
-  <si>
     <t>Henrico</t>
   </si>
   <si>
     <t>Richmond</t>
   </si>
   <si>
-    <t>VT</t>
-  </si>
-  <si>
-    <t>WA</t>
-  </si>
-  <si>
     <t>Seattle</t>
   </si>
   <si>
     <t>Tacoma</t>
   </si>
   <si>
-    <t>WI</t>
-  </si>
-  <si>
     <t>Madison</t>
   </si>
   <si>
     <t>Milwaukee</t>
   </si>
   <si>
-    <t>WV</t>
-  </si>
-  <si>
     <t>Charleston</t>
   </si>
   <si>
@@ -531,9 +534,6 @@
   </si>
   <si>
     <t>Martinsburg</t>
-  </si>
-  <si>
-    <t>WY</t>
   </si>
   <si>
     <t>Laramie</t>
@@ -1170,219 +1170,219 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="SINISTER" refreshedDate="45970.712566666669" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{8A48A006-D8FA-4F63-931C-0E8B60773080}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="SINISTER" refreshedDate="45977.495792013891" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{B1318955-3144-4EE6-8E2A-D111FB102562}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="4">
     <cacheField name="[Top3CityTotalAccidentsPerState].[DIM LOCATION].[STATE]" caption="DIM LOCATION" numFmtId="0" hierarchy="56">
       <sharedItems count="49">
-        <s v="[DIM LOCATION].[STATE].&amp;[AL]" c="AL"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[AR]" c="AR"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[AZ]" c="AZ"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[CA]" c="CA"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[CO]" c="CO"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[CT]" c="CT"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[DC]" c="DC"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[DE]" c="DE"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[FL]" c="FL"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[GA]" c="GA"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[IA]" c="IA"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[ID]" c="ID"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[IL]" c="IL"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[IN]" c="IN"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[KS]" c="KS"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[KY]" c="KY"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[LA]" c="LA"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[MA]" c="MA"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[MD]" c="MD"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[ME]" c="ME"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[MI]" c="MI"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[MN]" c="MN"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[MO]" c="MO"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[MS]" c="MS"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[MT]" c="MT"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[NC]" c="NC"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[ND]" c="ND"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[NE]" c="NE"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[NH]" c="NH"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[NJ]" c="NJ"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[NM]" c="NM"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[NV]" c="NV"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[NY]" c="NY"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[OH]" c="OH"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[OK]" c="OK"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[OR]" c="OR"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[PA]" c="PA"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[RI]" c="RI"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[SC]" c="SC"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[SD]" c="SD"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[TN]" c="TN"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[TX]" c="TX"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[UT]" c="UT"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[VA]" c="VA"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[VT]" c="VT"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[WA]" c="WA"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[WI]" c="WI"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[WV]" c="WV"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[WY]" c="WY"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[AL]&amp;[US]" c="AL"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[AR]&amp;[US]" c="AR"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[AZ]&amp;[US]" c="AZ"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[CA]&amp;[US]" c="CA"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[CO]&amp;[US]" c="CO"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[CT]&amp;[US]" c="CT"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[DC]&amp;[US]" c="DC"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[DE]&amp;[US]" c="DE"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[FL]&amp;[US]" c="FL"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[GA]&amp;[US]" c="GA"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[IA]&amp;[US]" c="IA"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[ID]&amp;[US]" c="ID"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[IL]&amp;[US]" c="IL"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[IN]&amp;[US]" c="IN"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[KS]&amp;[US]" c="KS"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[KY]&amp;[US]" c="KY"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[LA]&amp;[US]" c="LA"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[MA]&amp;[US]" c="MA"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[MD]&amp;[US]" c="MD"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[ME]&amp;[US]" c="ME"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[MI]&amp;[US]" c="MI"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[MN]&amp;[US]" c="MN"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[MO]&amp;[US]" c="MO"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[MS]&amp;[US]" c="MS"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[MT]&amp;[US]" c="MT"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[NC]&amp;[US]" c="NC"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[ND]&amp;[US]" c="ND"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[NE]&amp;[US]" c="NE"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[NH]&amp;[US]" c="NH"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[NJ]&amp;[US]" c="NJ"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[NM]&amp;[US]" c="NM"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[NV]&amp;[US]" c="NV"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[NY]&amp;[US]" c="NY"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[OH]&amp;[US]" c="OH"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[OK]&amp;[US]" c="OK"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[OR]&amp;[US]" c="OR"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[PA]&amp;[US]" c="PA"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[RI]&amp;[US]" c="RI"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[SC]&amp;[US]" c="SC"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[SD]&amp;[US]" c="SD"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[TN]&amp;[US]" c="TN"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[TX]&amp;[US]" c="TX"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[UT]&amp;[US]" c="UT"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[VA]&amp;[US]" c="VA"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[VT]&amp;[US]" c="VT"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[WA]&amp;[US]" c="WA"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[WI]&amp;[US]" c="WI"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[WV]&amp;[US]" c="WV"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[WY]&amp;[US]" c="WY"/>
       </sharedItems>
     </cacheField>
     <cacheField name="[Top3CityTotalAccidentsPerState].[DIM LOCATION].[CITY]" caption="DIM LOCATION" numFmtId="0" hierarchy="56" level="1">
       <sharedItems count="147">
-        <s v="[DIM LOCATION].[CITY].&amp;[Birmingham]&amp;[Jefferson]&amp;[AL]" c="Birmingham"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Huntsville]&amp;[Madison]&amp;[AL]" c="Huntsville"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Montgomery]&amp;[Montgomery]&amp;[AL]" c="Montgomery"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Benton]&amp;[Saline]&amp;[AR]" c="Benton"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Little Rock]&amp;[Pulaski]&amp;[AR]" c="Little Rock"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[North Little Rock]&amp;[Pulaski]&amp;[AR]" c="North Little Rock"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Phoenix]&amp;[Maricopa]&amp;[AZ]" c="Phoenix"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Tempe]&amp;[Maricopa]&amp;[AZ]" c="Tempe"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Tucson]&amp;[Pima]&amp;[AZ]" c="Tucson"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Los Angeles]&amp;[Los Angeles]&amp;[CA]" c="Los Angeles"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Sacramento]&amp;[Sacramento]&amp;[CA]" c="Sacramento"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[San Diego]&amp;[San Diego]&amp;[CA]" c="San Diego"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Colorado Springs]&amp;[El Paso]&amp;[CO]" c="Colorado Springs"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Denver]&amp;[Adams]&amp;[CO]" c="Denver"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Denver]&amp;[Denver]&amp;[CO]" c="Denver"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Hartford]&amp;[Hartford]&amp;[CT]" c="Hartford"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Norwalk]&amp;[Fairfield]&amp;[CT]" c="Norwalk"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Waterbury]&amp;[New Haven]&amp;[CT]" c="Waterbury"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Suitland]&amp;[District of Columbia]&amp;[DC]" c="Suitland"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Unknown]&amp;[District of Columbia]&amp;[DC]" c="Unknown"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Washington]&amp;[District Of Columbia]&amp;[DC]" c="Washington"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[New Castle]&amp;[New Castle]&amp;[DE]" c="New Castle"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Newark]&amp;[New Castle]&amp;[DE]" c="Newark"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Wilmington]&amp;[New Castle]&amp;[DE]" c="Wilmington"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Jacksonville]&amp;[Duval]&amp;[FL]" c="Jacksonville"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Miami]&amp;[Miami-Dade]&amp;[FL]" c="Miami"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Orlando]&amp;[Orange]&amp;[FL]" c="Orlando"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Atlanta]&amp;[DeKalb]&amp;[GA]" c="Atlanta"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Atlanta]&amp;[Fulton]&amp;[GA]" c="Atlanta"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Augusta]&amp;[Richmond]&amp;[GA]" c="Augusta"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Cedar Rapids]&amp;[Linn]&amp;[IA]" c="Cedar Rapids"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Des Moines]&amp;[Polk]&amp;[IA]" c="Des Moines"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Urbandale]&amp;[Polk]&amp;[IA]" c="Urbandale"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Boise]&amp;[Ada]&amp;[ID]" c="Boise"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Meridian]&amp;[Ada]&amp;[ID]" c="Meridian"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Nampa]&amp;[Canyon]&amp;[ID]" c="Nampa"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Chicago]&amp;[Cook]&amp;[IL]" c="Chicago"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[La Grange]&amp;[Cook]&amp;[IL]" c="La Grange"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Lake Zurich]&amp;[Lake]&amp;[IL]" c="Lake Zurich"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Gary]&amp;[Lake]&amp;[IN]" c="Gary"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Hammond]&amp;[Lake]&amp;[IN]" c="Hammond"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Indianapolis]&amp;[Marion]&amp;[IN]" c="Indianapolis"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Kansas City]&amp;[Wyandotte]&amp;[KS]" c="Kansas City"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Lenexa]&amp;[Johnson]&amp;[KS]" c="Lenexa"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Overland Park]&amp;[Johnson]&amp;[KS]" c="Overland Park"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Covington]&amp;[Kenton]&amp;[KY]" c="Covington"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Lexington]&amp;[Fayette]&amp;[KY]" c="Lexington"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Louisville]&amp;[Jefferson]&amp;[KY]" c="Louisville"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Baton Rouge]&amp;[East Baton Rouge]&amp;[LA]" c="Baton Rouge"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[New Orleans]&amp;[Orleans]&amp;[LA]" c="New Orleans"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Shreveport]&amp;[Caddo]&amp;[LA]" c="Shreveport"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Abington]&amp;[Plymouth]&amp;[MA]" c="Abington"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Boston]&amp;[Suffolk]&amp;[MA]" c="Boston"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Dorchester]&amp;[Suffolk]&amp;[MA]" c="Dorchester"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Frederick]&amp;[Frederick]&amp;[MD]" c="Frederick"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Hyattsville]&amp;[Prince George's]&amp;[MD]" c="Hyattsville"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Silver Spring]&amp;[Montgomery]&amp;[MD]" c="Silver Spring"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Augusta]&amp;[Kennebec]&amp;[ME]" c="Augusta"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Portland]&amp;[Cumberland]&amp;[ME]" c="Portland"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Yarmouth]&amp;[Cumberland]&amp;[ME]" c="Yarmouth"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Detroit]&amp;[Wayne]&amp;[MI]" c="Detroit"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Flint]&amp;[Genesee]&amp;[MI]" c="Flint"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Grand Rapids]&amp;[Kent]&amp;[MI]" c="Grand Rapids"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Minneapolis]&amp;[Anoka]&amp;[MN]" c="Minneapolis"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Minneapolis]&amp;[Hennepin]&amp;[MN]" c="Minneapolis"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Saint Paul]&amp;[Ramsey]&amp;[MN]" c="Saint Paul"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Kansas City]&amp;[Jackson]&amp;[MO]" c="Kansas City"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Saint Louis]&amp;[St. Louis County]&amp;[MO]" c="Saint Louis"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Springfield]&amp;[Greene]&amp;[MO]" c="Springfield"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Hattiesburg]&amp;[Forrest]&amp;[MS]" c="Hattiesburg"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Hattiesburg]&amp;[Lamar]&amp;[MS]" c="Hattiesburg"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Jackson]&amp;[Hinds]&amp;[MS]" c="Jackson"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Billings]&amp;[Yellowstone]&amp;[MT]" c="Billings"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Bozeman]&amp;[Gallatin]&amp;[MT]" c="Bozeman"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Livingston]&amp;[Park]&amp;[MT]" c="Livingston"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Asheville]&amp;[Buncombe]&amp;[NC]" c="Asheville"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Charlotte]&amp;[Mecklenburg]&amp;[NC]" c="Charlotte"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Raleigh]&amp;[Wake]&amp;[NC]" c="Raleigh"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Fargo]&amp;[Cass]&amp;[ND]" c="Fargo"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Hillsboro]&amp;[Traill]&amp;[ND]" c="Hillsboro"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Mandan]&amp;[Morton]&amp;[ND]" c="Mandan"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Bellevue]&amp;[Sarpy]&amp;[NE]" c="Bellevue"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Omaha]&amp;[Douglas]&amp;[NE]" c="Omaha"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Omaha]&amp;[Sarpy]&amp;[NE]" c="Omaha"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Bow]&amp;[Merrimack]&amp;[NH]" c="Bow"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Concord]&amp;[Merrimack]&amp;[NH]" c="Concord"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Manchester]&amp;[Hillsborough]&amp;[NH]" c="Manchester"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Fort Lee]&amp;[Bergen]&amp;[NJ]" c="Fort Lee"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Jersey City]&amp;[Hudson]&amp;[NJ]" c="Jersey City"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Newark]&amp;[Essex]&amp;[NJ]" c="Newark"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Albuquerque]&amp;[Bernalillo]&amp;[NM]" c="Albuquerque"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Casa Blanca]&amp;[Cibola]&amp;[NM]" c="Casa Blanca"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Gallup]&amp;[McKinley]&amp;[NM]" c="Gallup"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Reno]&amp;[Washoe]&amp;[NV]" c="Reno"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Sparks]&amp;[Washoe]&amp;[NV]" c="Sparks"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Wells]&amp;[Elko]&amp;[NV]" c="Wells"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Bronx]&amp;[Bronx]&amp;[NY]" c="Bronx"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Brooklyn]&amp;[Kings]&amp;[NY]" c="Brooklyn"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[New York]&amp;[New York]&amp;[NY]" c="New York"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Cincinnati]&amp;[Hamilton]&amp;[OH]" c="Cincinnati"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Columbus]&amp;[Franklin]&amp;[OH]" c="Columbus"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Dayton]&amp;[Montgomery]&amp;[OH]" c="Dayton"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Oklahoma City]&amp;[Cleveland]&amp;[OK]" c="Oklahoma City"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Oklahoma City]&amp;[Oklahoma]&amp;[OK]" c="Oklahoma City"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Tulsa]&amp;[Tulsa]&amp;[OK]" c="Tulsa"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Bend]&amp;[Deschutes]&amp;[OR]" c="Bend"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Pendleton]&amp;[Umatilla]&amp;[OR]" c="Pendleton"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Portland]&amp;[Multnomah]&amp;[OR]" c="Portland"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Lancaster]&amp;[Lancaster]&amp;[PA]" c="Lancaster"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Philadelphia]&amp;[Philadelphia]&amp;[PA]" c="Philadelphia"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Pittsburgh]&amp;[Allegheny]&amp;[PA]" c="Pittsburgh"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Cranston]&amp;[Providence]&amp;[RI]" c="Cranston"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Providence]&amp;[Providence]&amp;[RI]" c="Providence"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Warwick]&amp;[Kent]&amp;[RI]" c="Warwick"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Columbia]&amp;[Richland]&amp;[SC]" c="Columbia"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Greenville]&amp;[Greenville]&amp;[SC]" c="Greenville"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Spartanburg]&amp;[Spartanburg]&amp;[SC]" c="Spartanburg"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Deadwood]&amp;[Lawrence]&amp;[SD]" c="Deadwood"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Reva]&amp;[Harding]&amp;[SD]" c="Reva"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Vale]&amp;[Meade]&amp;[SD]" c="Vale"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Chattanooga]&amp;[Hamilton]&amp;[TN]" c="Chattanooga"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Memphis]&amp;[Shelby]&amp;[TN]" c="Memphis"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Nashville]&amp;[Davidson]&amp;[TN]" c="Nashville"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Austin]&amp;[Travis]&amp;[TX]" c="Austin"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Dallas]&amp;[Dallas]&amp;[TX]" c="Dallas"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Houston]&amp;[Harris]&amp;[TX]" c="Houston"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Ogden]&amp;[Weber]&amp;[UT]" c="Ogden"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Salt Lake City]&amp;[Salt Lake]&amp;[UT]" c="Salt Lake City"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[West Valley City]&amp;[Salt Lake]&amp;[UT]" c="West Valley City"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Henrico]&amp;[Henrico]&amp;[VA]" c="Henrico"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Richmond]&amp;[Richmond (City)]&amp;[VA]" c="Richmond"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Richmond]&amp;[Richmond City]&amp;[VA]" c="Richmond"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Bellows Falls]&amp;[Windham]&amp;[VT]" c="Bellows Falls"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Colchester]&amp;[Chittenden]&amp;[VT]" c="Colchester"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Newfane]&amp;[Windham]&amp;[VT]" c="Newfane"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Bellevue]&amp;[King]&amp;[WA]" c="Bellevue"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Seattle]&amp;[King]&amp;[WA]" c="Seattle"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Tacoma]&amp;[Pierce]&amp;[WA]" c="Tacoma"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Appleton]&amp;[Outagamie]&amp;[WI]" c="Appleton"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Madison]&amp;[Dane]&amp;[WI]" c="Madison"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Milwaukee]&amp;[Milwaukee]&amp;[WI]" c="Milwaukee"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Charleston]&amp;[Kanawha]&amp;[WV]" c="Charleston"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Huntington]&amp;[Cabell]&amp;[WV]" c="Huntington"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Martinsburg]&amp;[Berkeley]&amp;[WV]" c="Martinsburg"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Laramie]&amp;[Albany]&amp;[WY]" c="Laramie"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Rock Springs]&amp;[Sweetwater]&amp;[WY]" c="Rock Springs"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Wamsutter]&amp;[Sweetwater]&amp;[WY]" c="Wamsutter"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Birmingham]&amp;[Jefferson]&amp;[AL]&amp;[US]" c="Birmingham"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Huntsville]&amp;[Madison]&amp;[AL]&amp;[US]" c="Huntsville"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Montgomery]&amp;[Montgomery]&amp;[AL]&amp;[US]" c="Montgomery"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Benton]&amp;[Saline]&amp;[AR]&amp;[US]" c="Benton"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Little Rock]&amp;[Pulaski]&amp;[AR]&amp;[US]" c="Little Rock"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[North Little Rock]&amp;[Pulaski]&amp;[AR]&amp;[US]" c="North Little Rock"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Phoenix]&amp;[Maricopa]&amp;[AZ]&amp;[US]" c="Phoenix"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Tempe]&amp;[Maricopa]&amp;[AZ]&amp;[US]" c="Tempe"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Tucson]&amp;[Pima]&amp;[AZ]&amp;[US]" c="Tucson"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Los Angeles]&amp;[Los Angeles]&amp;[CA]&amp;[US]" c="Los Angeles"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Sacramento]&amp;[Sacramento]&amp;[CA]&amp;[US]" c="Sacramento"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[San Diego]&amp;[San Diego]&amp;[CA]&amp;[US]" c="San Diego"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Colorado Springs]&amp;[El Paso]&amp;[CO]&amp;[US]" c="Colorado Springs"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Denver]&amp;[Adams]&amp;[CO]&amp;[US]" c="Denver"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Denver]&amp;[Denver]&amp;[CO]&amp;[US]" c="Denver"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Hartford]&amp;[Hartford]&amp;[CT]&amp;[US]" c="Hartford"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Norwalk]&amp;[Fairfield]&amp;[CT]&amp;[US]" c="Norwalk"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Waterbury]&amp;[New Haven]&amp;[CT]&amp;[US]" c="Waterbury"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Suitland]&amp;[District of Columbia]&amp;[DC]&amp;[US]" c="Suitland"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Unknown]&amp;[District of Columbia]&amp;[DC]&amp;[US]" c="Unknown"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Washington]&amp;[District Of Columbia]&amp;[DC]&amp;[US]" c="Washington"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[New Castle]&amp;[New Castle]&amp;[DE]&amp;[US]" c="New Castle"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Newark]&amp;[New Castle]&amp;[DE]&amp;[US]" c="Newark"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Wilmington]&amp;[New Castle]&amp;[DE]&amp;[US]" c="Wilmington"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Jacksonville]&amp;[Duval]&amp;[FL]&amp;[US]" c="Jacksonville"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Miami]&amp;[Miami-Dade]&amp;[FL]&amp;[US]" c="Miami"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Orlando]&amp;[Orange]&amp;[FL]&amp;[US]" c="Orlando"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Atlanta]&amp;[DeKalb]&amp;[GA]&amp;[US]" c="Atlanta"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Atlanta]&amp;[Fulton]&amp;[GA]&amp;[US]" c="Atlanta"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Augusta]&amp;[Richmond]&amp;[GA]&amp;[US]" c="Augusta"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Cedar Rapids]&amp;[Linn]&amp;[IA]&amp;[US]" c="Cedar Rapids"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Des Moines]&amp;[Polk]&amp;[IA]&amp;[US]" c="Des Moines"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Urbandale]&amp;[Polk]&amp;[IA]&amp;[US]" c="Urbandale"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Boise]&amp;[Ada]&amp;[ID]&amp;[US]" c="Boise"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Meridian]&amp;[Ada]&amp;[ID]&amp;[US]" c="Meridian"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Nampa]&amp;[Canyon]&amp;[ID]&amp;[US]" c="Nampa"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Chicago]&amp;[Cook]&amp;[IL]&amp;[US]" c="Chicago"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[La Grange]&amp;[Cook]&amp;[IL]&amp;[US]" c="La Grange"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Lake Zurich]&amp;[Lake]&amp;[IL]&amp;[US]" c="Lake Zurich"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Gary]&amp;[Lake]&amp;[IN]&amp;[US]" c="Gary"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Hammond]&amp;[Lake]&amp;[IN]&amp;[US]" c="Hammond"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Indianapolis]&amp;[Marion]&amp;[IN]&amp;[US]" c="Indianapolis"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Kansas City]&amp;[Wyandotte]&amp;[KS]&amp;[US]" c="Kansas City"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Lenexa]&amp;[Johnson]&amp;[KS]&amp;[US]" c="Lenexa"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Overland Park]&amp;[Johnson]&amp;[KS]&amp;[US]" c="Overland Park"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Covington]&amp;[Kenton]&amp;[KY]&amp;[US]" c="Covington"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Lexington]&amp;[Fayette]&amp;[KY]&amp;[US]" c="Lexington"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Louisville]&amp;[Jefferson]&amp;[KY]&amp;[US]" c="Louisville"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Baton Rouge]&amp;[East Baton Rouge]&amp;[LA]&amp;[US]" c="Baton Rouge"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[New Orleans]&amp;[Orleans]&amp;[LA]&amp;[US]" c="New Orleans"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Shreveport]&amp;[Caddo]&amp;[LA]&amp;[US]" c="Shreveport"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Abington]&amp;[Plymouth]&amp;[MA]&amp;[US]" c="Abington"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Boston]&amp;[Suffolk]&amp;[MA]&amp;[US]" c="Boston"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Dorchester]&amp;[Suffolk]&amp;[MA]&amp;[US]" c="Dorchester"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Frederick]&amp;[Frederick]&amp;[MD]&amp;[US]" c="Frederick"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Hyattsville]&amp;[Prince George's]&amp;[MD]&amp;[US]" c="Hyattsville"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Silver Spring]&amp;[Montgomery]&amp;[MD]&amp;[US]" c="Silver Spring"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Augusta]&amp;[Kennebec]&amp;[ME]&amp;[US]" c="Augusta"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Portland]&amp;[Cumberland]&amp;[ME]&amp;[US]" c="Portland"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Yarmouth]&amp;[Cumberland]&amp;[ME]&amp;[US]" c="Yarmouth"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Detroit]&amp;[Wayne]&amp;[MI]&amp;[US]" c="Detroit"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Flint]&amp;[Genesee]&amp;[MI]&amp;[US]" c="Flint"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Grand Rapids]&amp;[Kent]&amp;[MI]&amp;[US]" c="Grand Rapids"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Minneapolis]&amp;[Anoka]&amp;[MN]&amp;[US]" c="Minneapolis"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Minneapolis]&amp;[Hennepin]&amp;[MN]&amp;[US]" c="Minneapolis"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Saint Paul]&amp;[Ramsey]&amp;[MN]&amp;[US]" c="Saint Paul"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Kansas City]&amp;[Jackson]&amp;[MO]&amp;[US]" c="Kansas City"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Saint Louis]&amp;[St. Louis County]&amp;[MO]&amp;[US]" c="Saint Louis"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Springfield]&amp;[Greene]&amp;[MO]&amp;[US]" c="Springfield"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Hattiesburg]&amp;[Forrest]&amp;[MS]&amp;[US]" c="Hattiesburg"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Hattiesburg]&amp;[Lamar]&amp;[MS]&amp;[US]" c="Hattiesburg"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Jackson]&amp;[Hinds]&amp;[MS]&amp;[US]" c="Jackson"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Billings]&amp;[Yellowstone]&amp;[MT]&amp;[US]" c="Billings"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Bozeman]&amp;[Gallatin]&amp;[MT]&amp;[US]" c="Bozeman"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Livingston]&amp;[Park]&amp;[MT]&amp;[US]" c="Livingston"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Asheville]&amp;[Buncombe]&amp;[NC]&amp;[US]" c="Asheville"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Charlotte]&amp;[Mecklenburg]&amp;[NC]&amp;[US]" c="Charlotte"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Raleigh]&amp;[Wake]&amp;[NC]&amp;[US]" c="Raleigh"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Fargo]&amp;[Cass]&amp;[ND]&amp;[US]" c="Fargo"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Hillsboro]&amp;[Traill]&amp;[ND]&amp;[US]" c="Hillsboro"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Mandan]&amp;[Morton]&amp;[ND]&amp;[US]" c="Mandan"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Bellevue]&amp;[Sarpy]&amp;[NE]&amp;[US]" c="Bellevue"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Omaha]&amp;[Douglas]&amp;[NE]&amp;[US]" c="Omaha"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Omaha]&amp;[Sarpy]&amp;[NE]&amp;[US]" c="Omaha"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Bow]&amp;[Merrimack]&amp;[NH]&amp;[US]" c="Bow"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Concord]&amp;[Merrimack]&amp;[NH]&amp;[US]" c="Concord"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Manchester]&amp;[Hillsborough]&amp;[NH]&amp;[US]" c="Manchester"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Fort Lee]&amp;[Bergen]&amp;[NJ]&amp;[US]" c="Fort Lee"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Jersey City]&amp;[Hudson]&amp;[NJ]&amp;[US]" c="Jersey City"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Newark]&amp;[Essex]&amp;[NJ]&amp;[US]" c="Newark"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Albuquerque]&amp;[Bernalillo]&amp;[NM]&amp;[US]" c="Albuquerque"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Casa Blanca]&amp;[Cibola]&amp;[NM]&amp;[US]" c="Casa Blanca"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Gallup]&amp;[McKinley]&amp;[NM]&amp;[US]" c="Gallup"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Reno]&amp;[Washoe]&amp;[NV]&amp;[US]" c="Reno"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Sparks]&amp;[Washoe]&amp;[NV]&amp;[US]" c="Sparks"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Wells]&amp;[Elko]&amp;[NV]&amp;[US]" c="Wells"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Bronx]&amp;[Bronx]&amp;[NY]&amp;[US]" c="Bronx"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Brooklyn]&amp;[Kings]&amp;[NY]&amp;[US]" c="Brooklyn"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[New York]&amp;[New York]&amp;[NY]&amp;[US]" c="New York"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Cincinnati]&amp;[Hamilton]&amp;[OH]&amp;[US]" c="Cincinnati"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Columbus]&amp;[Franklin]&amp;[OH]&amp;[US]" c="Columbus"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Dayton]&amp;[Montgomery]&amp;[OH]&amp;[US]" c="Dayton"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Oklahoma City]&amp;[Cleveland]&amp;[OK]&amp;[US]" c="Oklahoma City"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Oklahoma City]&amp;[Oklahoma]&amp;[OK]&amp;[US]" c="Oklahoma City"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Tulsa]&amp;[Tulsa]&amp;[OK]&amp;[US]" c="Tulsa"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Bend]&amp;[Deschutes]&amp;[OR]&amp;[US]" c="Bend"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Pendleton]&amp;[Umatilla]&amp;[OR]&amp;[US]" c="Pendleton"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Portland]&amp;[Multnomah]&amp;[OR]&amp;[US]" c="Portland"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Lancaster]&amp;[Lancaster]&amp;[PA]&amp;[US]" c="Lancaster"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Philadelphia]&amp;[Philadelphia]&amp;[PA]&amp;[US]" c="Philadelphia"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Pittsburgh]&amp;[Allegheny]&amp;[PA]&amp;[US]" c="Pittsburgh"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Cranston]&amp;[Providence]&amp;[RI]&amp;[US]" c="Cranston"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Providence]&amp;[Providence]&amp;[RI]&amp;[US]" c="Providence"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Warwick]&amp;[Kent]&amp;[RI]&amp;[US]" c="Warwick"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Columbia]&amp;[Richland]&amp;[SC]&amp;[US]" c="Columbia"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Greenville]&amp;[Greenville]&amp;[SC]&amp;[US]" c="Greenville"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Spartanburg]&amp;[Spartanburg]&amp;[SC]&amp;[US]" c="Spartanburg"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Deadwood]&amp;[Lawrence]&amp;[SD]&amp;[US]" c="Deadwood"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Reva]&amp;[Harding]&amp;[SD]&amp;[US]" c="Reva"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Vale]&amp;[Meade]&amp;[SD]&amp;[US]" c="Vale"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Chattanooga]&amp;[Hamilton]&amp;[TN]&amp;[US]" c="Chattanooga"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Memphis]&amp;[Shelby]&amp;[TN]&amp;[US]" c="Memphis"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Nashville]&amp;[Davidson]&amp;[TN]&amp;[US]" c="Nashville"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Austin]&amp;[Travis]&amp;[TX]&amp;[US]" c="Austin"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Dallas]&amp;[Dallas]&amp;[TX]&amp;[US]" c="Dallas"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Houston]&amp;[Harris]&amp;[TX]&amp;[US]" c="Houston"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Ogden]&amp;[Weber]&amp;[UT]&amp;[US]" c="Ogden"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Salt Lake City]&amp;[Salt Lake]&amp;[UT]&amp;[US]" c="Salt Lake City"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[West Valley City]&amp;[Salt Lake]&amp;[UT]&amp;[US]" c="West Valley City"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Henrico]&amp;[Henrico]&amp;[VA]&amp;[US]" c="Henrico"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Richmond]&amp;[Richmond (City)]&amp;[VA]&amp;[US]" c="Richmond"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Richmond]&amp;[Richmond City]&amp;[VA]&amp;[US]" c="Richmond"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Bellows Falls]&amp;[Windham]&amp;[VT]&amp;[US]" c="Bellows Falls"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Colchester]&amp;[Chittenden]&amp;[VT]&amp;[US]" c="Colchester"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Newfane]&amp;[Windham]&amp;[VT]&amp;[US]" c="Newfane"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Bellevue]&amp;[King]&amp;[WA]&amp;[US]" c="Bellevue"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Seattle]&amp;[King]&amp;[WA]&amp;[US]" c="Seattle"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Tacoma]&amp;[Pierce]&amp;[WA]&amp;[US]" c="Tacoma"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Appleton]&amp;[Outagamie]&amp;[WI]&amp;[US]" c="Appleton"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Madison]&amp;[Dane]&amp;[WI]&amp;[US]" c="Madison"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Milwaukee]&amp;[Milwaukee]&amp;[WI]&amp;[US]" c="Milwaukee"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Charleston]&amp;[Kanawha]&amp;[WV]&amp;[US]" c="Charleston"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Huntington]&amp;[Cabell]&amp;[WV]&amp;[US]" c="Huntington"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Martinsburg]&amp;[Berkeley]&amp;[WV]&amp;[US]" c="Martinsburg"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Laramie]&amp;[Albany]&amp;[WY]&amp;[US]" c="Laramie"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Rock Springs]&amp;[Sweetwater]&amp;[WY]&amp;[US]" c="Rock Springs"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Wamsutter]&amp;[Sweetwater]&amp;[WY]&amp;[US]" c="Wamsutter"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="[Measures].[Total Accidents]" caption="Total Accidents" numFmtId="0" hierarchy="45" level="32767"/>
-    <cacheField name="[DIM TIME].[YEAR].[YEAR]" caption="YEAR" numFmtId="0" hierarchy="30" level="1">
+    <cacheField name="[Measures].[Total Accidents]" caption="Total Accidents" numFmtId="0" hierarchy="47" level="32767"/>
+    <cacheField name="[DIM TIME].[YEAR].[YEAR]" caption="YEAR" numFmtId="0" hierarchy="32" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
   </cacheFields>
-  <cacheHierarchies count="57">
+  <cacheHierarchies count="61">
     <cacheHierarchy uniqueName="[DIM ENVIRONMENT].[AMENITY]" caption="AMENITY" attribute="1" defaultMemberUniqueName="[DIM ENVIRONMENT].[AMENITY].[All]" allUniqueName="[DIM ENVIRONMENT].[AMENITY].[All]" dimensionUniqueName="[DIM ENVIRONMENT]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM ENVIRONMENT].[BUMP]" caption="BUMP" attribute="1" defaultMemberUniqueName="[DIM ENVIRONMENT].[BUMP].[All]" allUniqueName="[DIM ENVIRONMENT].[BUMP].[All]" dimensionUniqueName="[DIM ENVIRONMENT]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM ENVIRONMENT].[CROSSING]" caption="CROSSING" attribute="1" defaultMemberUniqueName="[DIM ENVIRONMENT].[CROSSING].[All]" allUniqueName="[DIM ENVIRONMENT].[CROSSING].[All]" dimensionUniqueName="[DIM ENVIRONMENT]" displayFolder="" count="0" unbalanced="0"/>
@@ -1398,14 +1398,16 @@
     <cacheHierarchy uniqueName="[DIM ENVIRONMENT].[TRAFFIC SIGNAL]" caption="TRAFFIC SIGNAL" attribute="1" defaultMemberUniqueName="[DIM ENVIRONMENT].[TRAFFIC SIGNAL].[All]" allUniqueName="[DIM ENVIRONMENT].[TRAFFIC SIGNAL].[All]" dimensionUniqueName="[DIM ENVIRONMENT]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM ENVIRONMENT].[TURNING LOOP]" caption="TURNING LOOP" attribute="1" defaultMemberUniqueName="[DIM ENVIRONMENT].[TURNING LOOP].[All]" allUniqueName="[DIM ENVIRONMENT].[TURNING LOOP].[All]" dimensionUniqueName="[DIM ENVIRONMENT]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM LOCATION].[CITY]" caption="CITY" attribute="1" defaultMemberUniqueName="[DIM LOCATION].[CITY].[All]" allUniqueName="[DIM LOCATION].[CITY].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM LOCATION].[COUNTRY]" caption="COUNTRY" attribute="1" defaultMemberUniqueName="[DIM LOCATION].[COUNTRY].[All]" allUniqueName="[DIM LOCATION].[COUNTRY].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM LOCATION].[COUNTY]" caption="COUNTY" attribute="1" defaultMemberUniqueName="[DIM LOCATION].[COUNTY].[All]" allUniqueName="[DIM LOCATION].[COUNTY].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM LOCATION].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[DIM LOCATION].[Hierarchy].[All]" allUniqueName="[DIM LOCATION].[Hierarchy].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM LOCATION].[LATITUDE]" caption="LATITUDE" attribute="1" defaultMemberUniqueName="[DIM LOCATION].[LATITUDE].[All]" allUniqueName="[DIM LOCATION].[LATITUDE].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM LOCATION].[LOCATION ID]" caption="LOCATION ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[DIM LOCATION].[LOCATION ID].[All]" allUniqueName="[DIM LOCATION].[LOCATION ID].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM LOCATION].[LONGITUDE]" caption="LONGITUDE" attribute="1" defaultMemberUniqueName="[DIM LOCATION].[LONGITUDE].[All]" allUniqueName="[DIM LOCATION].[LONGITUDE].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[DIM LOCATION].[STATE]" caption="STATE" attribute="1" defaultMemberUniqueName="[DIM LOCATION].[STATE].[All]" allUniqueName="[DIM LOCATION].[STATE].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM LOCATION].[STATE]" caption="STATE" attribute="1" defaultMemberUniqueName="[DIM LOCATION].[STATE].[All]" allUniqueName="[DIM LOCATION].[STATE].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="2" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM LOCATION].[STREET]" caption="STREET" attribute="1" defaultMemberUniqueName="[DIM LOCATION].[STREET].[All]" allUniqueName="[DIM LOCATION].[STREET].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM LOCATION].[ZIPCODE]" caption="ZIPCODE" attribute="1" defaultMemberUniqueName="[DIM LOCATION].[ZIPCODE].[All]" allUniqueName="[DIM LOCATION].[ZIPCODE].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM TIME].[DATE]" caption="DATE" attribute="1" time="1" defaultMemberUniqueName="[DIM TIME].[DATE].[All]" allUniqueName="[DIM TIME].[DATE].[All]" dimensionUniqueName="[DIM TIME]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM TIME].[DAY]" caption="DAY" attribute="1" time="1" defaultMemberUniqueName="[DIM TIME].[DAY].[All]" allUniqueName="[DIM TIME].[DAY].[All]" dimensionUniqueName="[DIM TIME]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM TIME].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[DIM TIME].[Hierarchy].[All]" allUniqueName="[DIM TIME].[Hierarchy].[All]" dimensionUniqueName="[DIM TIME]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM TIME].[HOUR]" caption="HOUR" attribute="1" time="1" defaultMemberUniqueName="[DIM TIME].[HOUR].[All]" allUniqueName="[DIM TIME].[HOUR].[All]" dimensionUniqueName="[DIM TIME]" displayFolder="" count="0" unbalanced="0"/>
@@ -1442,12 +1444,10 @@
     <cacheHierarchy uniqueName="[Measures].[DangerIndex]" caption="DangerIndex" measure="1" displayFolder="" measureGroup="FACT ACCIDENT" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[YoYGrowth_Percent]" caption="YoYGrowth_Percent" measure="1" displayFolder="" measureGroup="FACT ACCIDENT" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Avg YoY Growth Range]" caption="Avg YoY Growth Range" measure="1" displayFolder="" measureGroup="FACT ACCIDENT" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Accidents (Traffic Signal)]" caption="Accidents (Traffic Signal)" measure="1" displayFolder="" measureGroup="FACT ACCIDENT" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Accidents (Stop Sign)]" caption="Accidents (Stop Sign)" measure="1" displayFolder="" measureGroup="FACT ACCIDENT" count="0"/>
     <cacheHierarchy uniqueName="[Top20CityHighestGrowth]" caption="Top20CityHighestGrowth" set="1" parentSet="14" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
-    <cacheHierarchy uniqueName="[ListCityGreaterThan1000Accidents]" caption="ListCityGreaterThan1000Accidents" set="1" parentSet="14" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
     <cacheHierarchy uniqueName="[Top5CityMostDangerous]" caption="Top5CityMostDangerous" set="1" parentSet="14" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
-    <cacheHierarchy uniqueName="[Top10StateHighestAccidents]" caption="Top10StateHighestAccidents" set="1" parentSet="20" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
-    <cacheHierarchy uniqueName="[ExceptionSunriseSunset]" caption="ExceptionSunriseSunset" set="1" parentSet="34" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
-    <cacheHierarchy uniqueName="[Top10DangerousStreet]" caption="Top10DangerousStreet" set="1" parentSet="21" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
     <cacheHierarchy uniqueName="[Top3CityTotalAccidentsPerState]" caption="Top3CityTotalAccidentsPerState" set="1" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0">
       <fieldsUsage count="2">
         <fieldUsage x="0"/>
@@ -1457,13 +1457,17 @@
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{8CF416AD-EC4C-4aba-99F5-12A058AE0983}">
           <x14:cacheHierarchy>
             <x14:setLevels count="2">
-              <x14:setLevel hierarchy="20"/>
+              <x14:setLevel hierarchy="21"/>
               <x14:setLevel hierarchy="14"/>
             </x14:setLevels>
           </x14:cacheHierarchy>
         </ext>
       </extLst>
     </cacheHierarchy>
+    <cacheHierarchy uniqueName="[ExceptionSunriseSunset]" caption="ExceptionSunriseSunset" set="1" parentSet="36" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
+    <cacheHierarchy uniqueName="[ListCityGreaterThan1000Accidents]" caption="ListCityGreaterThan1000Accidents" set="1" parentSet="14" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
+    <cacheHierarchy uniqueName="[Top10StateHighestAccidents]" caption="Top10StateHighestAccidents" set="1" parentSet="21" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
+    <cacheHierarchy uniqueName="[Top10DangerousStreet]" caption="Top10DangerousStreet" set="1" parentSet="22" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
   </cacheHierarchies>
   <kpis count="0"/>
   <dimensions count="5">
@@ -1491,7 +1495,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E9AC93E2-DF4C-4498-9113-8D2007E7C05B}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{210C7699-8E68-4079-A367-3C4DAC7512C8}" name="PivotTable1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A3:B199" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
@@ -2299,54 +2303,58 @@
     <i/>
   </colItems>
   <pageFields count="1">
-    <pageField fld="3" hier="30" name="[DIM TIME].[YEAR].&amp;[2022]" cap="2022"/>
+    <pageField fld="3" hier="32" name="[DIM TIME].[YEAR].&amp;[2022]" cap="2022"/>
   </pageFields>
   <dataFields count="1">
     <dataField fld="2" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotHierarchies count="57">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
+  <pivotHierarchies count="61">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
@@ -2694,7 +2702,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02649AF5-4BCB-44EF-82C6-7F098B1B2515}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4BE475C-B77D-4B29-AC2F-AC25F02E5FA8}">
   <dimension ref="A1:B199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2729,7 +2737,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="B5" s="4">
         <v>2307</v>
@@ -2737,7 +2745,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="B6" s="4">
         <v>1261</v>
@@ -2745,7 +2753,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B7" s="4">
         <v>1600</v>
@@ -2753,13 +2761,13 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="B9" s="4">
         <v>235</v>
@@ -2767,7 +2775,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="B10" s="4">
         <v>914</v>
@@ -2775,7 +2783,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="B11" s="4">
         <v>448</v>
@@ -2783,13 +2791,13 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="B13" s="4">
         <v>7611</v>
@@ -2797,7 +2805,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="B14" s="4">
         <v>1451</v>
@@ -2805,7 +2813,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="B15" s="4">
         <v>7059</v>
@@ -2813,13 +2821,13 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="B17" s="4">
         <v>22144</v>
@@ -2827,7 +2835,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="B18" s="4">
         <v>9515</v>
@@ -2835,7 +2843,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="B19" s="4">
         <v>9297</v>
@@ -2843,13 +2851,13 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B20" s="4"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="B21" s="4">
         <v>771</v>
@@ -2857,7 +2865,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="B22" s="4">
         <v>1093</v>
@@ -2865,7 +2873,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="B23" s="4">
         <v>2130</v>
@@ -2873,13 +2881,13 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B24" s="4"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="B25" s="4">
         <v>607</v>
@@ -2895,7 +2903,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="B27" s="4">
         <v>575</v>
@@ -2903,7 +2911,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B28" s="4"/>
     </row>
@@ -2917,7 +2925,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="B30" s="4">
         <v>35</v>
@@ -2925,7 +2933,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="B31" s="4">
         <v>4819</v>
@@ -2933,13 +2941,13 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B32" s="4"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="B33" s="4">
         <v>467</v>
@@ -2947,7 +2955,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B34" s="4">
         <v>304</v>
@@ -2955,7 +2963,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="B35" s="4">
         <v>588</v>
@@ -2963,13 +2971,13 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B36" s="4"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="B37" s="4">
         <v>6264</v>
@@ -2977,7 +2985,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="B38" s="4">
         <v>44121</v>
@@ -2985,7 +2993,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="B39" s="4">
         <v>25255</v>
@@ -2993,13 +3001,13 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B40" s="4"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B41" s="4">
         <v>1636</v>
@@ -3007,7 +3015,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B42" s="4">
         <v>5856</v>
@@ -3015,7 +3023,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="B43" s="4">
         <v>1064</v>
@@ -3023,13 +3031,13 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B44" s="4"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="B45" s="4">
         <v>149</v>
@@ -3037,7 +3045,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="B46" s="4">
         <v>462</v>
@@ -3053,13 +3061,13 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B48" s="4"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="B49" s="4">
         <v>513</v>
@@ -3067,7 +3075,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="B50" s="4">
         <v>626</v>
@@ -3075,7 +3083,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="B51" s="4">
         <v>74</v>
@@ -3083,13 +3091,13 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B52" s="4"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="B53" s="4">
         <v>3379</v>
@@ -3113,13 +3121,13 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B56" s="4"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B57" s="4">
         <v>467</v>
@@ -3127,7 +3135,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="B58" s="4">
         <v>460</v>
@@ -3135,7 +3143,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="B59" s="4">
         <v>3790</v>
@@ -3143,13 +3151,13 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B60" s="4"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="B61" s="4">
         <v>1297</v>
@@ -3157,7 +3165,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="B62" s="4">
         <v>497</v>
@@ -3165,7 +3173,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="B63" s="4">
         <v>604</v>
@@ -3173,13 +3181,13 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="B64" s="4"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="B65" s="4">
         <v>243</v>
@@ -3187,7 +3195,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="B66" s="4">
         <v>427</v>
@@ -3195,7 +3203,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="B67" s="4">
         <v>811</v>
@@ -3203,13 +3211,13 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="B68" s="4"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="B69" s="4">
         <v>9958</v>
@@ -3217,7 +3225,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="B70" s="4">
         <v>7366</v>
@@ -3225,7 +3233,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="B71" s="4">
         <v>2909</v>
@@ -3233,7 +3241,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="B72" s="4"/>
     </row>
@@ -3247,7 +3255,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="B74" s="4">
         <v>399</v>
@@ -3255,7 +3263,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="B75" s="4">
         <v>235</v>
@@ -3263,13 +3271,13 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="B76" s="4"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="B77" s="4">
         <v>1421</v>
@@ -3285,7 +3293,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="B79" s="4">
         <v>1487</v>
@@ -3293,13 +3301,13 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="B80" s="4"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="B81" s="4">
         <v>8</v>
@@ -3307,7 +3315,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="B82" s="4">
         <v>10</v>
@@ -3323,13 +3331,13 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="B84" s="4"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="B85" s="4">
         <v>3014</v>
@@ -3337,7 +3345,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="B86" s="4">
         <v>1695</v>
@@ -3345,7 +3353,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="B87" s="4">
         <v>3395</v>
@@ -3353,13 +3361,13 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="B88" s="4"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="B89" s="4">
         <v>594</v>
@@ -3367,7 +3375,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="B90" s="4">
         <v>5717</v>
@@ -3375,7 +3383,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="B91" s="4">
         <v>2976</v>
@@ -3383,13 +3391,13 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="B92" s="4"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="B93" s="4">
         <v>3920</v>
@@ -3397,7 +3405,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="B94" s="4">
         <v>978</v>
@@ -3405,7 +3413,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="B95" s="4">
         <v>1772</v>
@@ -3413,13 +3421,13 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="B96" s="4"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="B97" s="4">
         <v>170</v>
@@ -3427,7 +3435,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="B98" s="4">
         <v>113</v>
@@ -3435,7 +3443,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="B99" s="4">
         <v>630</v>
@@ -3443,13 +3451,13 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="B100" s="4"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="B101" s="4">
         <v>496</v>
@@ -3457,7 +3465,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="B102" s="4">
         <v>907</v>
@@ -3465,7 +3473,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B103" s="4">
         <v>553</v>
@@ -3473,7 +3481,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="B104" s="4"/>
     </row>
@@ -3487,7 +3495,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="B106" s="4">
         <v>17672</v>
@@ -3495,7 +3503,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="B107" s="4">
         <v>11885</v>
@@ -3503,13 +3511,13 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B108" s="4"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="B109" s="4">
         <v>117</v>
@@ -3525,7 +3533,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="B111" s="4">
         <v>46</v>
@@ -3533,13 +3541,13 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="B112" s="4"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="B113" s="4">
         <v>43</v>
@@ -3547,7 +3555,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="B114" s="4">
         <v>583</v>
@@ -3555,7 +3563,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="B115" s="4">
         <v>91</v>
@@ -3563,7 +3571,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="B116" s="4"/>
     </row>
@@ -3585,7 +3593,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B119" s="4">
         <v>59</v>
@@ -3593,13 +3601,13 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="B120" s="4"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="B121" s="4">
         <v>1229</v>
@@ -3607,7 +3615,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="B122" s="4">
         <v>1086</v>
@@ -3615,7 +3623,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B123" s="4">
         <v>2150</v>
@@ -3623,13 +3631,13 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="B124" s="4"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="B125" s="4">
         <v>595</v>
@@ -3637,7 +3645,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="B126" s="4">
         <v>44</v>
@@ -3645,7 +3653,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="B127" s="4">
         <v>56</v>
@@ -3653,13 +3661,13 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="B128" s="4"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="B129" s="4">
         <v>1123</v>
@@ -3667,7 +3675,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="B130" s="4">
         <v>513</v>
@@ -3683,13 +3691,13 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="B132" s="4"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="B133" s="4">
         <v>5490</v>
@@ -3705,7 +3713,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="B135" s="4">
         <v>5420</v>
@@ -3713,13 +3721,13 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="B136" s="4"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="B137" s="4">
         <v>2347</v>
@@ -3727,7 +3735,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="B138" s="4">
         <v>2778</v>
@@ -3735,7 +3743,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="B139" s="4">
         <v>2834</v>
@@ -3743,13 +3751,13 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="B140" s="4"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="B141" s="4">
         <v>120</v>
@@ -3757,7 +3765,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="B142" s="4">
         <v>1759</v>
@@ -3765,7 +3773,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="B143" s="4">
         <v>4798</v>
@@ -3773,13 +3781,13 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="B144" s="4"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="B145" s="4">
         <v>434</v>
@@ -3787,7 +3795,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="B146" s="4">
         <v>787</v>
@@ -3795,7 +3803,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="B147" s="4">
         <v>2844</v>
@@ -3803,13 +3811,13 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="B148" s="4"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="B149" s="4">
         <v>2032</v>
@@ -3817,7 +3825,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B150" s="4">
         <v>3516</v>
@@ -3825,7 +3833,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B151" s="4">
         <v>2328</v>
@@ -3833,7 +3841,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="B152" s="4"/>
     </row>
@@ -3847,7 +3855,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="B154" s="4">
         <v>544</v>
@@ -3855,7 +3863,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B155" s="4">
         <v>165</v>
@@ -3863,13 +3871,13 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>128</v>
+        <v>39</v>
       </c>
       <c r="B156" s="4"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B157" s="4">
         <v>4395</v>
@@ -3877,7 +3885,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B158" s="4">
         <v>5000</v>
@@ -3885,7 +3893,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="B159" s="4">
         <v>2324</v>
@@ -3893,7 +3901,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="B160" s="4"/>
     </row>
@@ -3923,13 +3931,13 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="B164" s="4"/>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B165" s="4">
         <v>3894</v>
@@ -3937,7 +3945,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B166" s="4">
         <v>2302</v>
@@ -3945,7 +3953,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B167" s="4">
         <v>10282</v>
@@ -3953,13 +3961,13 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="B168" s="4"/>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B169" s="4">
         <v>7576</v>
@@ -3967,7 +3975,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B170" s="4">
         <v>17835</v>
@@ -3975,7 +3983,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B171" s="4">
         <v>19309</v>
@@ -3983,13 +3991,13 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="B172" s="4"/>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B173" s="4">
         <v>707</v>
@@ -3997,7 +4005,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B174" s="4">
         <v>2713</v>
@@ -4005,7 +4013,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B175" s="4">
         <v>442</v>
@@ -4013,13 +4021,13 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>145</v>
+        <v>44</v>
       </c>
       <c r="B176" s="4"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B177" s="4">
         <v>2157</v>
@@ -4027,7 +4035,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B178" s="4">
         <v>2136</v>
@@ -4035,7 +4043,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B179" s="4">
         <v>3621</v>
@@ -4043,7 +4051,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="B180" s="4"/>
     </row>
@@ -4073,13 +4081,13 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
       <c r="B184" s="4"/>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="B185" s="4">
         <v>468</v>
@@ -4087,7 +4095,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B186" s="4">
         <v>2902</v>
@@ -4095,7 +4103,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B187" s="4">
         <v>933</v>
@@ -4103,7 +4111,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="B188" s="4"/>
     </row>
@@ -4117,7 +4125,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B190" s="4">
         <v>593</v>
@@ -4125,7 +4133,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B191" s="4">
         <v>1889</v>
@@ -4133,13 +4141,13 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>155</v>
+        <v>48</v>
       </c>
       <c r="B192" s="4"/>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B193" s="4">
         <v>450</v>
@@ -4147,7 +4155,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B194" s="4">
         <v>168</v>
@@ -4155,7 +4163,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B195" s="4">
         <v>168</v>
@@ -4163,7 +4171,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>159</v>
+        <v>49</v>
       </c>
       <c r="B196" s="4"/>
     </row>
